--- a/data/trans_camb/IP16B01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,46</t>
+          <t>70,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,37</t>
+          <t>61,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>70,34</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>90,52</t>
+          <t>71,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>83,44</t>
+          <t>91,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,42</t>
+          <t>67,62</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,78; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,35; 97,6</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,08; 83,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,25; 97,16</t>
+          <t>15,5; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,31; 91,1</t>
+          <t>61,03; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,81; 95,3</t>
+          <t>29,24; 100,0</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4564,28%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5873,74%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10785,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11687,15%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>91,6</t>
+          <t>97,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>86,7</t>
+          <t>90,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85,74</t>
+          <t>70,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>76,45</t>
+          <t>90,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>88,66</t>
+          <t>83,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>81,32</t>
+          <t>90,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,55; 97,76</t>
+          <t>86,78; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,57; 96,22</t>
+          <t>78,35; 97,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,19; 94,75</t>
+          <t>51,08; 83,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55,47; 89,12</t>
+          <t>76,25; 97,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,67; 94,56</t>
+          <t>72,31; 91,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,61; 89,82</t>
+          <t>82,81; 95,3</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4564,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>5873,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>10785,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11687,15%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>70,28</t>
+          <t>95,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>61,46</t>
+          <t>95,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>73,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>71,85</t>
+          <t>76,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,13</t>
+          <t>85,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>67,62</t>
+          <t>84,44</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>85,04; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>76,51; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,41; 85,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,5; 100,0</t>
+          <t>59,47; 90,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>61,03; 100,0</t>
+          <t>75,15; 92,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,24; 100,0</t>
+          <t>72,62; 92,35</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>95,19</t>
+          <t>91,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>95,14</t>
+          <t>86,7</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>73,3</t>
+          <t>85,74</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>76,68</t>
+          <t>76,45</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>85,32</t>
+          <t>88,66</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>84,44</t>
+          <t>81,32</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>85,04; 100,0</t>
+          <t>77,55; 97,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>76,51; 100,0</t>
+          <t>67,57; 96,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>56,41; 85,56</t>
+          <t>71,19; 94,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>59,47; 90,1</t>
+          <t>55,47; 89,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>75,15; 92,33</t>
+          <t>79,67; 94,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>72,62; 92,35</t>
+          <t>67,61; 89,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,03; 100,0</t>
+          <t>52,81; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,24; 100,0</t>
+          <t>23,74; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,39; 100,0</t>
+          <t>77,1; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,26; 100,0</t>
+          <t>53,31; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,46; 100,0</t>
+          <t>75,26; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,93; 93,76</t>
+          <t>48,63; 93,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,72; 98,01</t>
+          <t>83,97; 98,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,14; 91,11</t>
+          <t>59,17; 91,51</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,78; 100,0</t>
+          <t>87,08; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,35; 97,6</t>
+          <t>78,23; 97,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,08; 83,17</t>
+          <t>54,44; 84,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,25; 97,16</t>
+          <t>76,45; 97,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,31; 91,1</t>
+          <t>72,4; 90,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,81; 95,3</t>
+          <t>82,22; 95,95</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,04; 100,0</t>
+          <t>82,77; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76,51; 100,0</t>
+          <t>74,26; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,41; 85,56</t>
+          <t>55,31; 85,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59,47; 90,1</t>
+          <t>58,44; 89,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,15; 92,33</t>
+          <t>76,61; 92,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,62; 92,35</t>
+          <t>72,1; 92,55</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>77,55; 97,76</t>
+          <t>79,54; 97,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,57; 96,22</t>
+          <t>66,14; 96,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>71,19; 94,75</t>
+          <t>71,4; 94,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55,47; 89,12</t>
+          <t>55,61; 91,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>79,67; 94,56</t>
+          <t>80,13; 94,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,61; 89,82</t>
+          <t>66,92; 89,65</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>87,87; 96,99</t>
+          <t>88,29; 96,69</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>81,16; 93,98</t>
+          <t>80,65; 93,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>74,24; 86,95</t>
+          <t>74,08; 87,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>72,36; 87,82</t>
+          <t>72,15; 87,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>83,27; 90,84</t>
+          <t>83,13; 90,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>79,33; 89,01</t>
+          <t>78,64; 88,39</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2147,22; —</t>
+          <t>2063,27; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2188,07; —</t>
+          <t>2066,89; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5034,97; —</t>
+          <t>5562,92; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4693,67; —</t>
+          <t>5271,87; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,81; 100,0</t>
+          <t>57,61; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 100,0</t>
+          <t>23,99; 100,0</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,1; 100,0</t>
+          <t>76,73; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,31; 100,0</t>
+          <t>46,46; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,26; 100,0</t>
+          <t>75,32; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,63; 93,11</t>
+          <t>48,93; 92,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,97; 98,07</t>
+          <t>82,16; 98,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,17; 91,51</t>
+          <t>60,53; 93,14</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,08; 100,0</t>
+          <t>88,65; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,23; 97,57</t>
+          <t>77,9; 95,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,44; 84,05</t>
+          <t>52,58; 83,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,45; 97,64</t>
+          <t>77,99; 97,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,4; 90,39</t>
+          <t>72,84; 90,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,22; 95,95</t>
+          <t>81,77; 95,39</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,77; 100,0</t>
+          <t>84,6; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74,26; 100,0</t>
+          <t>76,78; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55,31; 85,94</t>
+          <t>57,04; 87,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>58,44; 89,72</t>
+          <t>58,17; 89,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,61; 92,21</t>
+          <t>74,77; 92,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,1; 92,55</t>
+          <t>71,84; 92,31</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>79,54; 97,91</t>
+          <t>77,05; 97,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>66,14; 96,2</t>
+          <t>67,21; 96,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>71,4; 94,61</t>
+          <t>69,67; 94,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55,61; 91,64</t>
+          <t>56,12; 88,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>80,13; 94,75</t>
+          <t>80,41; 95,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>66,92; 89,65</t>
+          <t>67,1; 89,8</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>88,29; 96,69</t>
+          <t>87,91; 97,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>80,65; 93,66</t>
+          <t>80,36; 93,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>74,08; 87,43</t>
+          <t>74,29; 87,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>72,15; 87,57</t>
+          <t>72,99; 87,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>83,13; 90,85</t>
+          <t>82,82; 91,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>78,64; 88,39</t>
+          <t>78,39; 88,37</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2063,27; —</t>
+          <t>2099,55; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2066,89; —</t>
+          <t>2315,25; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5562,92; —</t>
+          <t>4649,46; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5271,87; —</t>
+          <t>5021,03; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>70,28</t>
+          <t>94,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61,46</t>
+          <t>75,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>89,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>71,85</t>
+          <t>77,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,13</t>
+          <t>92,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>67,62</t>
+          <t>75,97</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>81,97; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>50,07; 90,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,11; 96,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 100,0</t>
+          <t>46,92; 93,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,61; 100,0</t>
+          <t>82,73; 97,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 100,0</t>
+          <t>58,15; 88,52</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4399,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3480,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>8026,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6605,38%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,37</t>
+          <t>70,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,95</t>
+          <t>90,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,8</t>
+          <t>97,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75,93</t>
+          <t>90,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,53</t>
+          <t>83,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,76</t>
+          <t>90,42</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,73; 100,0</t>
+          <t>51,08; 83,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,46; 100,0</t>
+          <t>76,25; 97,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,32; 100,0</t>
+          <t>86,78; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,93; 92,17</t>
+          <t>78,35; 97,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,16; 98,01</t>
+          <t>72,31; 91,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,53; 93,14</t>
+          <t>82,81; 95,3</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4564,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>5873,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3034,34%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2482,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6150,99%</t>
+          <t>10785,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5235,57%</t>
+          <t>11687,15%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>97,46</t>
+          <t>73,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>90,37</t>
+          <t>76,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>70,34</t>
+          <t>95,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>90,52</t>
+          <t>95,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>83,44</t>
+          <t>85,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,42</t>
+          <t>84,44</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,65; 100,0</t>
+          <t>56,41; 85,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,9; 95,4</t>
+          <t>59,47; 90,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,58; 83,09</t>
+          <t>85,04; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>77,99; 97,61</t>
+          <t>76,51; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,84; 90,89</t>
+          <t>75,15; 92,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,77; 95,39</t>
+          <t>72,62; 92,35</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4564,28%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5873,74%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10785,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11687,15%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>95,19</t>
+          <t>85,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>95,14</t>
+          <t>76,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>73,3</t>
+          <t>91,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>76,68</t>
+          <t>86,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>85,32</t>
+          <t>88,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>84,44</t>
+          <t>81,32</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,6; 100,0</t>
+          <t>71,19; 94,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76,78; 100,0</t>
+          <t>55,47; 89,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>57,04; 87,41</t>
+          <t>77,55; 97,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>58,17; 89,76</t>
+          <t>67,57; 96,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,77; 92,09</t>
+          <t>79,67; 94,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>71,84; 92,31</t>
+          <t>67,61; 89,82</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>91,6</t>
+          <t>81,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>86,7</t>
+          <t>80,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>85,74</t>
+          <t>93,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>76,45</t>
+          <t>88,32</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,66</t>
+          <t>87,41</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>81,32</t>
+          <t>84,29</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>77,05; 97,7</t>
+          <t>74,24; 86,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,21; 96,22</t>
+          <t>72,36; 87,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,67; 94,66</t>
+          <t>87,87; 96,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>56,12; 88,98</t>
+          <t>81,16; 93,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>80,41; 95,0</t>
+          <t>83,27; 90,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,1; 89,8</t>
+          <t>79,33; 89,01</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7549,52%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7489,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>17445,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>16821,91%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2147,22; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2188,07; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,180 +1359,24 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5034,97; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4693,67; —</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>93,44</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>88,32</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>81,27</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>80,63</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>87,41</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>84,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>87,91; 97,08</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>80,36; 93,73</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>74,29; 87,23</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>72,99; 87,44</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>82,82; 91,18</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>78,39; 88,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>7549,52%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>7489,55%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>17445,82%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>16821,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>2099,55; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>2315,25; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>4649,46; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>5021,03; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
